--- a/app/config/tables/authorizations/forms/authorizations/authorizations.xlsx
+++ b/app/config/tables/authorizations/forms/authorizations/authorizations.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RC2\modules\app-designer\app\config\tables\authorizations\forms\authorizations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clarice\red-cross\redcross-app-designer\app\config\tables\authorizations\forms\authorizations\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="22680" windowHeight="16215" tabRatio="989" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="470" windowWidth="22680" windowHeight="16220" tabRatio="989" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="1" r:id="rId1"/>
@@ -47,6 +47,18 @@
     <t>custom_delivery_form_id</t>
   </si>
   <si>
+    <t>item_pack_id</t>
+  </si>
+  <si>
+    <t>item_pack_name</t>
+  </si>
+  <si>
+    <t>item_pack_description</t>
+  </si>
+  <si>
+    <t>item_pack_ranges</t>
+  </si>
+  <si>
     <t>status</t>
   </si>
   <si>
@@ -159,18 +171,6 @@
   </si>
   <si>
     <t>distribution_name</t>
-  </si>
-  <si>
-    <t>item_id</t>
-  </si>
-  <si>
-    <t>item_name</t>
-  </si>
-  <si>
-    <t>item_description</t>
-  </si>
-  <si>
-    <t>item_ranges</t>
   </si>
 </sst>
 </file>
@@ -656,16 +656,16 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1"/>
-    <col min="2" max="2" width="47.375" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="47.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -673,7 +673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -681,7 +681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -689,92 +689,92 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="4" t="s">
+    <row r="13" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="4" t="s">
+    <row r="14" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -787,69 +787,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.75" customWidth="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C2" s="11"/>
     </row>
-    <row r="3" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B3" s="10">
-        <v>20200331</v>
+        <v>20170919</v>
       </c>
       <c r="C3" s="11"/>
     </row>
-    <row r="4" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C4" s="11"/>
     </row>
-    <row r="5" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="C6" s="11"/>
     </row>
@@ -863,42 +862,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="8" customFormat="1" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -915,74 +914,74 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
